--- a/data/natz_demographics.xlsx
+++ b/data/natz_demographics.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9704BEBA-CD88-3E4F-8863-1A701625B36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6121029-7753-8147-B039-A79166D94CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="460" windowWidth="27960" windowHeight="17540" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="460" windowWidth="27960" windowHeight="17540" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020" sheetId="19" r:id="rId1"/>
@@ -14,7 +14,8 @@
     <sheet name="2017" sheetId="16" r:id="rId4"/>
     <sheet name="2016" sheetId="17" r:id="rId5"/>
     <sheet name="Total" sheetId="18" r:id="rId6"/>
-    <sheet name="Sheet6" sheetId="20" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="21" r:id="rId7"/>
+    <sheet name="Sheet6" sheetId="20" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="124">
   <si>
     <t>Total</t>
   </si>
@@ -201,13 +202,217 @@
   </si>
   <si>
     <t>Aggregate Value (%)</t>
+  </si>
+  <si>
+    <t>Age Range</t>
+  </si>
+  <si>
+    <t>18-34</t>
+  </si>
+  <si>
+    <t>35-50</t>
+  </si>
+  <si>
+    <t>50-64</t>
+  </si>
+  <si>
+    <t>65+</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>Americas</t>
+  </si>
+  <si>
+    <t>Asia</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>Oceania</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>TEXAS</t>
+  </si>
+  <si>
+    <t>NEW.YORK</t>
+  </si>
+  <si>
+    <t>MARYLAND</t>
+  </si>
+  <si>
+    <t>CALIFORNIA</t>
+  </si>
+  <si>
+    <t>MINNESOTA</t>
+  </si>
+  <si>
+    <t>MASSACHUSETTS</t>
+  </si>
+  <si>
+    <t>VIRGINIA</t>
+  </si>
+  <si>
+    <t>NEW.JERSEY</t>
+  </si>
+  <si>
+    <t>GEORGIA</t>
+  </si>
+  <si>
+    <t>OHIO</t>
+  </si>
+  <si>
+    <t>PENNSYLVANIA</t>
+  </si>
+  <si>
+    <t>FLORIDA</t>
+  </si>
+  <si>
+    <t>WASHINGTON</t>
+  </si>
+  <si>
+    <t>NORTH.CAROLINA</t>
+  </si>
+  <si>
+    <t>ILLINOIS</t>
+  </si>
+  <si>
+    <t>TENNESSEE</t>
+  </si>
+  <si>
+    <t>COLORADO</t>
+  </si>
+  <si>
+    <t>UNKNOWN</t>
+  </si>
+  <si>
+    <t>MICHIGAN</t>
+  </si>
+  <si>
+    <t>ARIZONA</t>
+  </si>
+  <si>
+    <t>INDIANA</t>
+  </si>
+  <si>
+    <t>IOWA</t>
+  </si>
+  <si>
+    <t>MISSOURI</t>
+  </si>
+  <si>
+    <t>KENTUCKY</t>
+  </si>
+  <si>
+    <t>CONNECTICUT</t>
+  </si>
+  <si>
+    <t>DISTRICT.OF.COLUMBIA</t>
+  </si>
+  <si>
+    <t>RHODE.ISLAND</t>
+  </si>
+  <si>
+    <t>NEBRASKA</t>
+  </si>
+  <si>
+    <t>NEVADA</t>
+  </si>
+  <si>
+    <t>KANSAS</t>
+  </si>
+  <si>
+    <t>OREGON</t>
+  </si>
+  <si>
+    <t>WISCONSIN</t>
+  </si>
+  <si>
+    <t>OKLAHOMA</t>
+  </si>
+  <si>
+    <t>SOUTH.CAROLINA</t>
+  </si>
+  <si>
+    <t>NORTH.DAKOTA</t>
+  </si>
+  <si>
+    <t>UTAH</t>
+  </si>
+  <si>
+    <t>DELAWARE</t>
+  </si>
+  <si>
+    <t>ALABAMA</t>
+  </si>
+  <si>
+    <t>MAINE</t>
+  </si>
+  <si>
+    <t>SOUTH.DAKOTA</t>
+  </si>
+  <si>
+    <t>LOUISIANA</t>
+  </si>
+  <si>
+    <t>NEW.HAMPSHIRE</t>
+  </si>
+  <si>
+    <t>IDAHO</t>
+  </si>
+  <si>
+    <t>ARKANSAS</t>
+  </si>
+  <si>
+    <t>NEW.MEXICO</t>
+  </si>
+  <si>
+    <t>WEST.VIRGINIA</t>
+  </si>
+  <si>
+    <t>ALASKA</t>
+  </si>
+  <si>
+    <t>MISSISSIPPI</t>
+  </si>
+  <si>
+    <t>VERMONT</t>
+  </si>
+  <si>
+    <t>HAWAII</t>
+  </si>
+  <si>
+    <t>U.S..ARMED.SERVICES.POSTS</t>
+  </si>
+  <si>
+    <t>MONTANA</t>
+  </si>
+  <si>
+    <t>WYOMING</t>
+  </si>
+  <si>
+    <t>PUERTO.RICO</t>
+  </si>
+  <si>
+    <t>GUAM</t>
+  </si>
+  <si>
+    <t>U.S..TERRITORIES1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,6 +456,34 @@
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Grande"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Grande"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -427,10 +660,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -532,6 +766,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -550,10 +785,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -929,11 +1168,11 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="25"/>
       <c r="B4" s="26"/>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="48"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
@@ -1852,11 +2091,11 @@
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="50"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
@@ -2629,11 +2868,11 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="50"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -3376,11 +3615,11 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="50"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -4130,11 +4369,11 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="50"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -4840,8 +5079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{931205EE-FA52-E849-9634-B1E59B8D5E15}">
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4878,11 +5117,11 @@
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="50"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -4983,11 +5222,11 @@
         <f>B8/B$7</f>
         <v>1.2908245180861342E-2</v>
       </c>
-      <c r="I8" s="50">
+      <c r="I8" s="51">
         <f>SUM(H8:H11)</f>
         <v>0.3166610405370982</v>
       </c>
-      <c r="J8" s="50">
+      <c r="J8" s="51">
         <f>SUM(H8:H12)</f>
         <v>0.4542511747872876</v>
       </c>
@@ -5024,8 +5263,8 @@
         <f t="shared" ref="H9:H19" si="2">B9/B$7</f>
         <v>6.8966151995372052E-2</v>
       </c>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
@@ -5059,8 +5298,8 @@
         <f t="shared" si="2"/>
         <v>0.1069215470295254</v>
       </c>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
@@ -5094,8 +5333,8 @@
         <f t="shared" si="2"/>
         <v>0.12786509633133941</v>
       </c>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
@@ -5129,11 +5368,11 @@
         <f t="shared" si="2"/>
         <v>0.13759013425018943</v>
       </c>
-      <c r="I12" s="50">
+      <c r="I12" s="51">
         <f>SUM(H12:H14)</f>
         <v>0.36951245955345224</v>
       </c>
-      <c r="J12" s="50"/>
+      <c r="J12" s="51"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
@@ -5167,12 +5406,12 @@
         <f t="shared" si="2"/>
         <v>0.12928656255574808</v>
       </c>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50">
+      <c r="I13" s="51"/>
+      <c r="J13" s="51">
         <f>SUM(H13:H19)</f>
         <v>0.54574720098926044</v>
       </c>
-      <c r="K13" s="51">
+      <c r="K13" s="45">
         <f>SUM(B12:B15)</f>
         <v>1685445</v>
       </c>
@@ -5213,8 +5452,8 @@
         <f t="shared" si="2"/>
         <v>0.10263576274751474</v>
       </c>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
@@ -5248,11 +5487,11 @@
         <f t="shared" si="2"/>
         <v>8.674408978923806E-2</v>
       </c>
-      <c r="I15" s="50">
+      <c r="I15" s="51">
         <f>SUM(H15:H19)</f>
         <v>0.31382487568599754</v>
       </c>
-      <c r="J15" s="50"/>
+      <c r="J15" s="51"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
@@ -5286,8 +5525,8 @@
         <f t="shared" si="2"/>
         <v>7.3309596209928718E-2</v>
       </c>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
@@ -5321,8 +5560,8 @@
         <f t="shared" si="2"/>
         <v>5.6293419215050704E-2</v>
       </c>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
@@ -5356,8 +5595,8 @@
         <f t="shared" si="2"/>
         <v>7.1218949923296054E-2</v>
       </c>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
@@ -5391,8 +5630,8 @@
         <f t="shared" si="2"/>
         <v>2.6258820548484017E-2</v>
       </c>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
@@ -6149,23 +6388,2719 @@
     <mergeCell ref="J8:J12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F7EE8D-9EF2-4D4B-A488-5D3C451F37D3}">
+  <dimension ref="A1:N30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N22" sqref="I19:N22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3694073</v>
+      </c>
+      <c r="C2">
+        <v>2050026</v>
+      </c>
+      <c r="D2" s="53">
+        <v>0.55495005106829232</v>
+      </c>
+      <c r="E2">
+        <v>1643552</v>
+      </c>
+      <c r="F2" s="53">
+        <f>E2/B2</f>
+        <v>0.44491595049691762</v>
+      </c>
+      <c r="G2" s="53"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3">
+        <v>47684</v>
+      </c>
+      <c r="C3">
+        <v>24421</v>
+      </c>
+      <c r="D3" s="53">
+        <v>0.51214243771495682</v>
+      </c>
+      <c r="E3">
+        <v>23257</v>
+      </c>
+      <c r="F3" s="53">
+        <f t="shared" ref="F3:F14" si="0">E3/B3</f>
+        <v>0.48773173391494001</v>
+      </c>
+      <c r="G3" s="53">
+        <v>1.2908245180861342E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4">
+        <v>254766</v>
+      </c>
+      <c r="C4">
+        <v>135065</v>
+      </c>
+      <c r="D4" s="53">
+        <v>0.53015316015480873</v>
+      </c>
+      <c r="E4">
+        <v>119692</v>
+      </c>
+      <c r="F4" s="53">
+        <f t="shared" si="0"/>
+        <v>0.46981151331025334</v>
+      </c>
+      <c r="G4" s="53">
+        <v>6.8966151995372052E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5">
+        <v>394976</v>
+      </c>
+      <c r="C5">
+        <v>223289</v>
+      </c>
+      <c r="D5" s="53">
+        <v>0.56532295633152396</v>
+      </c>
+      <c r="E5">
+        <v>171666</v>
+      </c>
+      <c r="F5" s="53">
+        <f t="shared" si="0"/>
+        <v>0.43462387588106621</v>
+      </c>
+      <c r="G5" s="53">
+        <v>0.1069215470295254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6">
+        <v>472343</v>
+      </c>
+      <c r="C6">
+        <v>272608</v>
+      </c>
+      <c r="D6" s="53">
+        <v>0.57713991739054038</v>
+      </c>
+      <c r="E6">
+        <v>199711</v>
+      </c>
+      <c r="F6" s="53">
+        <f t="shared" si="0"/>
+        <v>0.42280927207558916</v>
+      </c>
+      <c r="G6" s="53">
+        <v>0.12786509633133941</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7">
+        <v>508268</v>
+      </c>
+      <c r="C7">
+        <v>286802</v>
+      </c>
+      <c r="D7" s="53">
+        <v>0.56427317871673999</v>
+      </c>
+      <c r="E7">
+        <v>221437</v>
+      </c>
+      <c r="F7" s="53">
+        <f t="shared" si="0"/>
+        <v>0.43566976476976715</v>
+      </c>
+      <c r="G7" s="53">
+        <v>0.13759013425018943</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8">
+        <v>477594</v>
+      </c>
+      <c r="C8">
+        <v>254139</v>
+      </c>
+      <c r="D8" s="53">
+        <v>0.5321235191396877</v>
+      </c>
+      <c r="E8">
+        <v>223415</v>
+      </c>
+      <c r="F8" s="53">
+        <f t="shared" si="0"/>
+        <v>0.46779272771433478</v>
+      </c>
+      <c r="G8" s="53">
+        <v>0.12928656255574808</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <v>379144</v>
+      </c>
+      <c r="C9">
+        <v>202216</v>
+      </c>
+      <c r="D9" s="53">
+        <v>0.5333488067858122</v>
+      </c>
+      <c r="E9">
+        <v>176878</v>
+      </c>
+      <c r="F9" s="53">
+        <f t="shared" si="0"/>
+        <v>0.46651931719874246</v>
+      </c>
+      <c r="G9" s="53">
+        <v>0.10263576274751474</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10">
+        <v>320439</v>
+      </c>
+      <c r="C10">
+        <v>174890</v>
+      </c>
+      <c r="D10" s="53">
+        <v>0.5457825046264656</v>
+      </c>
+      <c r="E10">
+        <v>145477</v>
+      </c>
+      <c r="F10" s="53">
+        <f t="shared" si="0"/>
+        <v>0.45399280362253036</v>
+      </c>
+      <c r="G10" s="53">
+        <v>8.674408978923806E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11">
+        <v>270811</v>
+      </c>
+      <c r="C11">
+        <v>151846</v>
+      </c>
+      <c r="D11" s="53">
+        <v>0.56070839072268108</v>
+      </c>
+      <c r="E11">
+        <v>118898</v>
+      </c>
+      <c r="F11" s="53">
+        <f t="shared" si="0"/>
+        <v>0.43904420426053592</v>
+      </c>
+      <c r="G11" s="53">
+        <v>7.3309596209928718E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12">
+        <v>207952</v>
+      </c>
+      <c r="C12">
+        <v>116359</v>
+      </c>
+      <c r="D12" s="53">
+        <v>0.55954739555281985</v>
+      </c>
+      <c r="E12">
+        <v>91523</v>
+      </c>
+      <c r="F12" s="53">
+        <f t="shared" si="0"/>
+        <v>0.44011598830499343</v>
+      </c>
+      <c r="G12" s="53">
+        <v>5.6293419215050704E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13">
+        <v>263088</v>
+      </c>
+      <c r="C13">
+        <v>150103</v>
+      </c>
+      <c r="D13" s="53">
+        <v>0.57054293620385577</v>
+      </c>
+      <c r="E13">
+        <v>112911</v>
+      </c>
+      <c r="F13" s="53">
+        <f t="shared" si="0"/>
+        <v>0.4291757890895822</v>
+      </c>
+      <c r="G13" s="53">
+        <v>7.1218949923296054E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14">
+        <v>97002</v>
+      </c>
+      <c r="C14">
+        <v>58283</v>
+      </c>
+      <c r="D14" s="53">
+        <v>0.6008432815818231</v>
+      </c>
+      <c r="E14">
+        <v>38686</v>
+      </c>
+      <c r="F14" s="53">
+        <f t="shared" si="0"/>
+        <v>0.39881651924702582</v>
+      </c>
+      <c r="G14" s="53">
+        <v>2.6258820548484017E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="I17" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="J17" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="K17" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="L17" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="M17" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="52" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>3694073</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19">
+        <v>47684</v>
+      </c>
+      <c r="C19">
+        <v>1.2908245180861342E-2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19">
+        <f>SUM(B19:B22)</f>
+        <v>1169769</v>
+      </c>
+      <c r="G19">
+        <f>F19/B18</f>
+        <v>0.3166610405370982</v>
+      </c>
+      <c r="I19" t="s">
+        <v>57</v>
+      </c>
+      <c r="J19">
+        <v>1169769</v>
+      </c>
+      <c r="K19">
+        <f>SUM(C3:C6)</f>
+        <v>655383</v>
+      </c>
+      <c r="L19" s="53">
+        <f>K19/J19</f>
+        <v>0.56026702707970544</v>
+      </c>
+      <c r="M19">
+        <f>SUM(E3:E6)</f>
+        <v>514326</v>
+      </c>
+      <c r="N19" s="53">
+        <f>M19/J19</f>
+        <v>0.43968168074209524</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20">
+        <v>254766</v>
+      </c>
+      <c r="C20">
+        <v>6.8966151995372052E-2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20">
+        <f>SUM(B23:B25)</f>
+        <v>1365006</v>
+      </c>
+      <c r="G20">
+        <f>F20/B18</f>
+        <v>0.36951245955345224</v>
+      </c>
+      <c r="I20" t="s">
+        <v>58</v>
+      </c>
+      <c r="J20">
+        <v>1365006</v>
+      </c>
+      <c r="K20">
+        <f>SUM(C7:C9)</f>
+        <v>743157</v>
+      </c>
+      <c r="L20" s="53">
+        <f t="shared" ref="L20:L22" si="1">K20/J20</f>
+        <v>0.54443496951661752</v>
+      </c>
+      <c r="M20">
+        <f>SUM(E7:E9)</f>
+        <v>621730</v>
+      </c>
+      <c r="N20" s="53">
+        <f t="shared" ref="N20:N22" si="2">M20/J20</f>
+        <v>0.45547785137940788</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21">
+        <v>394976</v>
+      </c>
+      <c r="C21">
+        <v>0.1069215470295254</v>
+      </c>
+      <c r="E21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21">
+        <f>SUM(B26:B28)</f>
+        <v>799202</v>
+      </c>
+      <c r="G21">
+        <f>F21/B18</f>
+        <v>0.21634710521421749</v>
+      </c>
+      <c r="I21" t="s">
+        <v>59</v>
+      </c>
+      <c r="J21">
+        <v>799202</v>
+      </c>
+      <c r="K21">
+        <f>SUM(C10:C12)</f>
+        <v>443095</v>
+      </c>
+      <c r="L21" s="53">
+        <f t="shared" si="1"/>
+        <v>0.55442178573126699</v>
+      </c>
+      <c r="M21">
+        <f>SUM(E10:E12)</f>
+        <v>355898</v>
+      </c>
+      <c r="N21" s="53">
+        <f t="shared" si="2"/>
+        <v>0.44531670341165314</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22">
+        <v>472343</v>
+      </c>
+      <c r="C22">
+        <v>0.12786509633133941</v>
+      </c>
+      <c r="E22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22">
+        <f>SUM(B29:B30)</f>
+        <v>360090</v>
+      </c>
+      <c r="G22">
+        <f>F22/B18</f>
+        <v>9.7477770471780065E-2</v>
+      </c>
+      <c r="I22" t="s">
+        <v>60</v>
+      </c>
+      <c r="J22">
+        <v>360090</v>
+      </c>
+      <c r="K22">
+        <f>SUM(C13:C14)</f>
+        <v>208386</v>
+      </c>
+      <c r="L22" s="53">
+        <f t="shared" si="1"/>
+        <v>0.57870532366908278</v>
+      </c>
+      <c r="M22">
+        <f>SUM(E13:E14)</f>
+        <v>151597</v>
+      </c>
+      <c r="N22" s="53">
+        <f t="shared" si="2"/>
+        <v>0.42099752839567883</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23">
+        <v>508268</v>
+      </c>
+      <c r="C23">
+        <v>0.13759013425018943</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24">
+        <v>477594</v>
+      </c>
+      <c r="C24">
+        <v>0.12928656255574808</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25">
+        <v>379144</v>
+      </c>
+      <c r="C25">
+        <v>0.10263576274751474</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>320439</v>
+      </c>
+      <c r="C26">
+        <v>8.674408978923806E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27">
+        <v>270811</v>
+      </c>
+      <c r="C27">
+        <v>7.3309596209928718E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28">
+        <v>207952</v>
+      </c>
+      <c r="C28">
+        <v>5.6293419215050704E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29">
+        <v>263088</v>
+      </c>
+      <c r="C29">
+        <v>7.1218949923296054E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>97002</v>
+      </c>
+      <c r="C30">
+        <v>2.6258820548484017E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{846044BD-FB64-F549-B7C4-4EB73594C8BA}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:C21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>51</v>
       </c>
     </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="55">
+        <v>1373056</v>
+      </c>
+      <c r="D6" s="55">
+        <v>1594967</v>
+      </c>
+      <c r="E6" s="55">
+        <v>346882</v>
+      </c>
+      <c r="F6" s="55">
+        <v>1594967</v>
+      </c>
+      <c r="G6" s="55">
+        <v>1373056</v>
+      </c>
+      <c r="H6" s="55">
+        <v>346088</v>
+      </c>
+      <c r="I6" s="55">
+        <v>17902</v>
+      </c>
+      <c r="J6" s="55">
+        <v>1475</v>
+      </c>
+      <c r="K6" s="55">
+        <v>3694073</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="54">
+        <v>1</v>
+      </c>
+      <c r="B7" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="55">
+        <v>355638</v>
+      </c>
+      <c r="D7" s="55">
+        <v>298491</v>
+      </c>
+      <c r="E7" s="55">
+        <v>23614</v>
+      </c>
+      <c r="F7" s="55">
+        <v>298491</v>
+      </c>
+      <c r="G7" s="55">
+        <v>355638</v>
+      </c>
+      <c r="H7" s="55">
+        <v>48996</v>
+      </c>
+      <c r="I7" s="55">
+        <v>6633</v>
+      </c>
+      <c r="J7" s="55">
+        <v>233</v>
+      </c>
+      <c r="K7" s="55">
+        <v>733756</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="54">
+        <v>2</v>
+      </c>
+      <c r="B8" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="55">
+        <v>142189</v>
+      </c>
+      <c r="D8" s="55">
+        <v>184528</v>
+      </c>
+      <c r="E8" s="55">
+        <v>29528</v>
+      </c>
+      <c r="F8" s="55">
+        <v>184528</v>
+      </c>
+      <c r="G8" s="55">
+        <v>142189</v>
+      </c>
+      <c r="H8" s="55">
+        <v>45464</v>
+      </c>
+      <c r="I8" s="55">
+        <v>964</v>
+      </c>
+      <c r="J8" s="55">
+        <v>116</v>
+      </c>
+      <c r="K8" s="55">
+        <v>402904</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="54">
+        <v>3</v>
+      </c>
+      <c r="B9" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="55">
+        <v>117185</v>
+      </c>
+      <c r="D9" s="55">
+        <v>176930</v>
+      </c>
+      <c r="E9" s="55">
+        <v>33480</v>
+      </c>
+      <c r="F9" s="55">
+        <v>176930</v>
+      </c>
+      <c r="G9" s="55">
+        <v>117185</v>
+      </c>
+      <c r="H9" s="55">
+        <v>15055</v>
+      </c>
+      <c r="I9" s="55">
+        <v>907</v>
+      </c>
+      <c r="J9" s="55">
+        <v>112</v>
+      </c>
+      <c r="K9" s="55">
+        <v>343799</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="54">
+        <v>4</v>
+      </c>
+      <c r="B10" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="55">
+        <v>63996</v>
+      </c>
+      <c r="D10" s="55">
+        <v>77969</v>
+      </c>
+      <c r="E10" s="55">
+        <v>16124</v>
+      </c>
+      <c r="F10" s="55">
+        <v>77969</v>
+      </c>
+      <c r="G10" s="55">
+        <v>63996</v>
+      </c>
+      <c r="H10" s="55">
+        <v>19314</v>
+      </c>
+      <c r="I10" s="55">
+        <v>242</v>
+      </c>
+      <c r="J10" s="55">
+        <v>88</v>
+      </c>
+      <c r="K10" s="55">
+        <v>177890</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="54">
+        <v>5</v>
+      </c>
+      <c r="B11" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="55">
+        <v>52143</v>
+      </c>
+      <c r="D11" s="55">
+        <v>37639</v>
+      </c>
+      <c r="E11" s="55">
+        <v>9313</v>
+      </c>
+      <c r="F11" s="55">
+        <v>37639</v>
+      </c>
+      <c r="G11" s="55">
+        <v>52143</v>
+      </c>
+      <c r="H11" s="55">
+        <v>28119</v>
+      </c>
+      <c r="I11" s="55">
+        <v>299</v>
+      </c>
+      <c r="J11" s="55">
+        <v>56</v>
+      </c>
+      <c r="K11" s="55">
+        <v>127720</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="54">
+        <v>6</v>
+      </c>
+      <c r="B12" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="55">
+        <v>47695</v>
+      </c>
+      <c r="D12" s="55">
+        <v>27382</v>
+      </c>
+      <c r="E12" s="55">
+        <v>17350</v>
+      </c>
+      <c r="F12" s="55">
+        <v>27382</v>
+      </c>
+      <c r="G12" s="55">
+        <v>47695</v>
+      </c>
+      <c r="H12" s="55">
+        <v>8272</v>
+      </c>
+      <c r="I12" s="55">
+        <v>306</v>
+      </c>
+      <c r="J12" s="55">
+        <v>31</v>
+      </c>
+      <c r="K12" s="55">
+        <v>101190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="54">
+        <v>7</v>
+      </c>
+      <c r="B13" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="55">
+        <v>45253</v>
+      </c>
+      <c r="D13" s="55">
+        <v>340938</v>
+      </c>
+      <c r="E13" s="55">
+        <v>10493</v>
+      </c>
+      <c r="F13" s="55">
+        <v>340938</v>
+      </c>
+      <c r="G13" s="55">
+        <v>45253</v>
+      </c>
+      <c r="H13" s="55">
+        <v>31365</v>
+      </c>
+      <c r="I13" s="55">
+        <v>602</v>
+      </c>
+      <c r="J13" s="55">
+        <v>191</v>
+      </c>
+      <c r="K13" s="55">
+        <v>429017</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="54">
+        <v>8</v>
+      </c>
+      <c r="B14" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="55">
+        <v>41676</v>
+      </c>
+      <c r="D14" s="55">
+        <v>9859</v>
+      </c>
+      <c r="E14" s="55">
+        <v>4544</v>
+      </c>
+      <c r="F14" s="55">
+        <v>9859</v>
+      </c>
+      <c r="G14" s="55">
+        <v>41676</v>
+      </c>
+      <c r="H14" s="55">
+        <v>9700</v>
+      </c>
+      <c r="I14" s="55">
+        <v>175</v>
+      </c>
+      <c r="J14" s="55">
+        <v>38</v>
+      </c>
+      <c r="K14" s="55">
+        <v>66177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="54">
+        <v>9</v>
+      </c>
+      <c r="B15" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="55">
+        <v>41417</v>
+      </c>
+      <c r="D15" s="55">
+        <v>19185</v>
+      </c>
+      <c r="E15" s="55">
+        <v>10223</v>
+      </c>
+      <c r="F15" s="55">
+        <v>19185</v>
+      </c>
+      <c r="G15" s="55">
+        <v>41417</v>
+      </c>
+      <c r="H15" s="55">
+        <v>14466</v>
+      </c>
+      <c r="I15" s="55">
+        <v>1411</v>
+      </c>
+      <c r="J15" s="55">
+        <v>12</v>
+      </c>
+      <c r="K15" s="55">
+        <v>86909</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="54">
+        <v>10</v>
+      </c>
+      <c r="B16" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="55">
+        <v>38095</v>
+      </c>
+      <c r="D16" s="55">
+        <v>22618</v>
+      </c>
+      <c r="E16" s="55">
+        <v>12476</v>
+      </c>
+      <c r="F16" s="55">
+        <v>22618</v>
+      </c>
+      <c r="G16" s="55">
+        <v>38095</v>
+      </c>
+      <c r="H16" s="55">
+        <v>11456</v>
+      </c>
+      <c r="I16" s="55">
+        <v>262</v>
+      </c>
+      <c r="J16" s="55">
+        <v>25</v>
+      </c>
+      <c r="K16" s="55">
+        <v>85083</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="54">
+        <v>11</v>
+      </c>
+      <c r="B17" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="55">
+        <v>38022</v>
+      </c>
+      <c r="D17" s="55">
+        <v>46336</v>
+      </c>
+      <c r="E17" s="55">
+        <v>18701</v>
+      </c>
+      <c r="F17" s="55">
+        <v>46336</v>
+      </c>
+      <c r="G17" s="55">
+        <v>38022</v>
+      </c>
+      <c r="H17" s="55">
+        <v>16782</v>
+      </c>
+      <c r="I17" s="55">
+        <v>327</v>
+      </c>
+      <c r="J17" s="55">
+        <v>61</v>
+      </c>
+      <c r="K17" s="55">
+        <v>120403</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="54">
+        <v>12</v>
+      </c>
+      <c r="B18" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="55">
+        <v>37773</v>
+      </c>
+      <c r="D18" s="55">
+        <v>34479</v>
+      </c>
+      <c r="E18" s="55">
+        <v>15510</v>
+      </c>
+      <c r="F18" s="55">
+        <v>34479</v>
+      </c>
+      <c r="G18" s="55">
+        <v>37773</v>
+      </c>
+      <c r="H18" s="55">
+        <v>8180</v>
+      </c>
+      <c r="I18" s="55">
+        <v>311</v>
+      </c>
+      <c r="J18" s="55">
+        <v>24</v>
+      </c>
+      <c r="K18" s="55">
+        <v>96469</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="54">
+        <v>13</v>
+      </c>
+      <c r="B19" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="55">
+        <v>31914</v>
+      </c>
+      <c r="D19" s="55">
+        <v>24534</v>
+      </c>
+      <c r="E19" s="55">
+        <v>26428</v>
+      </c>
+      <c r="F19" s="55">
+        <v>24534</v>
+      </c>
+      <c r="G19" s="55">
+        <v>31914</v>
+      </c>
+      <c r="H19" s="55">
+        <v>5958</v>
+      </c>
+      <c r="I19" s="55">
+        <v>149</v>
+      </c>
+      <c r="J19" s="55">
+        <v>35</v>
+      </c>
+      <c r="K19" s="55">
+        <v>89165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="54">
+        <v>14</v>
+      </c>
+      <c r="B20" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="55">
+        <v>30407</v>
+      </c>
+      <c r="D20" s="55">
+        <v>8214</v>
+      </c>
+      <c r="E20" s="55">
+        <v>14559</v>
+      </c>
+      <c r="F20" s="55">
+        <v>8214</v>
+      </c>
+      <c r="G20" s="55">
+        <v>30407</v>
+      </c>
+      <c r="H20" s="55">
+        <v>6446</v>
+      </c>
+      <c r="I20" s="55">
+        <v>157</v>
+      </c>
+      <c r="J20" s="55">
+        <v>40</v>
+      </c>
+      <c r="K20" s="55">
+        <v>60015</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="54">
+        <v>15</v>
+      </c>
+      <c r="B21" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="55">
+        <v>27916</v>
+      </c>
+      <c r="D21" s="55">
+        <v>25057</v>
+      </c>
+      <c r="E21" s="55">
+        <v>9893</v>
+      </c>
+      <c r="F21" s="55">
+        <v>25057</v>
+      </c>
+      <c r="G21" s="55">
+        <v>27916</v>
+      </c>
+      <c r="H21" s="55">
+        <v>7254</v>
+      </c>
+      <c r="I21" s="55">
+        <v>268</v>
+      </c>
+      <c r="J21" s="55">
+        <v>36</v>
+      </c>
+      <c r="K21" s="55">
+        <v>70579</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="54">
+        <v>16</v>
+      </c>
+      <c r="B22" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="55">
+        <v>19419</v>
+      </c>
+      <c r="D22" s="55">
+        <v>6990</v>
+      </c>
+      <c r="E22" s="55">
+        <v>20706</v>
+      </c>
+      <c r="F22" s="55">
+        <v>6990</v>
+      </c>
+      <c r="G22" s="55">
+        <v>19419</v>
+      </c>
+      <c r="H22" s="55">
+        <v>3400</v>
+      </c>
+      <c r="I22" s="55">
+        <v>134</v>
+      </c>
+      <c r="J22" s="55">
+        <v>10</v>
+      </c>
+      <c r="K22" s="55">
+        <v>50863</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="54">
+        <v>17</v>
+      </c>
+      <c r="B23" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="55">
+        <v>18679</v>
+      </c>
+      <c r="D23" s="55">
+        <v>35307</v>
+      </c>
+      <c r="E23" s="55">
+        <v>4367</v>
+      </c>
+      <c r="F23" s="55">
+        <v>35307</v>
+      </c>
+      <c r="G23" s="55">
+        <v>18679</v>
+      </c>
+      <c r="H23" s="55">
+        <v>4939</v>
+      </c>
+      <c r="I23" s="55">
+        <v>308</v>
+      </c>
+      <c r="J23" s="55">
+        <v>20</v>
+      </c>
+      <c r="K23" s="55">
+        <v>63857</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="54">
+        <v>18</v>
+      </c>
+      <c r="B24" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="55">
+        <v>16170</v>
+      </c>
+      <c r="D24" s="55">
+        <v>20392</v>
+      </c>
+      <c r="E24" s="55">
+        <v>2510</v>
+      </c>
+      <c r="F24" s="55">
+        <v>20392</v>
+      </c>
+      <c r="G24" s="55">
+        <v>16170</v>
+      </c>
+      <c r="H24" s="55">
+        <v>3393</v>
+      </c>
+      <c r="I24" s="55">
+        <v>270</v>
+      </c>
+      <c r="J24" s="55">
+        <v>3</v>
+      </c>
+      <c r="K24" s="55">
+        <v>42976</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="54">
+        <v>19</v>
+      </c>
+      <c r="B25" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="55">
+        <v>14927</v>
+      </c>
+      <c r="D25" s="55">
+        <v>8467</v>
+      </c>
+      <c r="E25" s="55">
+        <v>4359</v>
+      </c>
+      <c r="F25" s="55">
+        <v>8467</v>
+      </c>
+      <c r="G25" s="55">
+        <v>14927</v>
+      </c>
+      <c r="H25" s="55">
+        <v>2538</v>
+      </c>
+      <c r="I25" s="55">
+        <v>78</v>
+      </c>
+      <c r="J25" s="55">
+        <v>14</v>
+      </c>
+      <c r="K25" s="55">
+        <v>30604</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="54">
+        <v>20</v>
+      </c>
+      <c r="B26" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="55">
+        <v>13591</v>
+      </c>
+      <c r="D26" s="55">
+        <v>15884</v>
+      </c>
+      <c r="E26" s="55">
+        <v>6039</v>
+      </c>
+      <c r="F26" s="55">
+        <v>15884</v>
+      </c>
+      <c r="G26" s="55">
+        <v>13591</v>
+      </c>
+      <c r="H26" s="55">
+        <v>5719</v>
+      </c>
+      <c r="I26" s="55">
+        <v>441</v>
+      </c>
+      <c r="J26" s="55">
+        <v>11</v>
+      </c>
+      <c r="K26" s="55">
+        <v>41859</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="54">
+        <v>21</v>
+      </c>
+      <c r="B27" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" s="55">
+        <v>13454</v>
+      </c>
+      <c r="D27" s="55">
+        <v>1097</v>
+      </c>
+      <c r="E27" s="55">
+        <v>117</v>
+      </c>
+      <c r="F27" s="55">
+        <v>1097</v>
+      </c>
+      <c r="G27" s="55">
+        <v>13454</v>
+      </c>
+      <c r="H27" s="55">
+        <v>810</v>
+      </c>
+      <c r="I27" s="55">
+        <v>612</v>
+      </c>
+      <c r="J27" s="55">
+        <v>10</v>
+      </c>
+      <c r="K27" s="55">
+        <v>16462</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="54">
+        <v>22</v>
+      </c>
+      <c r="B28" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="55">
+        <v>12812</v>
+      </c>
+      <c r="D28" s="55">
+        <v>11364</v>
+      </c>
+      <c r="E28" s="55">
+        <v>2245</v>
+      </c>
+      <c r="F28" s="55">
+        <v>11364</v>
+      </c>
+      <c r="G28" s="55">
+        <v>12812</v>
+      </c>
+      <c r="H28" s="55">
+        <v>5339</v>
+      </c>
+      <c r="I28" s="55">
+        <v>423</v>
+      </c>
+      <c r="J28" s="55">
+        <v>8</v>
+      </c>
+      <c r="K28" s="55">
+        <v>32425</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="54">
+        <v>23</v>
+      </c>
+      <c r="B29" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="55">
+        <v>12789</v>
+      </c>
+      <c r="D29" s="55">
+        <v>14679</v>
+      </c>
+      <c r="E29" s="55">
+        <v>4599</v>
+      </c>
+      <c r="F29" s="55">
+        <v>14679</v>
+      </c>
+      <c r="G29" s="55">
+        <v>12789</v>
+      </c>
+      <c r="H29" s="55">
+        <v>3422</v>
+      </c>
+      <c r="I29" s="55">
+        <v>269</v>
+      </c>
+      <c r="J29" s="55">
+        <v>149</v>
+      </c>
+      <c r="K29" s="55">
+        <v>36002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="54">
+        <v>28</v>
+      </c>
+      <c r="B30" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="55">
+        <v>11728</v>
+      </c>
+      <c r="D30" s="55">
+        <v>7993</v>
+      </c>
+      <c r="E30" s="55">
+        <v>6101</v>
+      </c>
+      <c r="F30" s="55">
+        <v>7993</v>
+      </c>
+      <c r="G30" s="55">
+        <v>11728</v>
+      </c>
+      <c r="H30" s="55">
+        <v>2504</v>
+      </c>
+      <c r="I30" s="55">
+        <v>142</v>
+      </c>
+      <c r="J30" s="55">
+        <v>9</v>
+      </c>
+      <c r="K30" s="55">
+        <v>28703</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="54">
+        <v>20</v>
+      </c>
+      <c r="B31" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="55">
+        <v>11369</v>
+      </c>
+      <c r="D31" s="55">
+        <v>19427</v>
+      </c>
+      <c r="E31" s="55">
+        <v>3116</v>
+      </c>
+      <c r="F31" s="55">
+        <v>19427</v>
+      </c>
+      <c r="G31" s="55">
+        <v>11369</v>
+      </c>
+      <c r="H31" s="55">
+        <v>7916</v>
+      </c>
+      <c r="I31" s="55">
+        <v>134</v>
+      </c>
+      <c r="J31" s="55">
+        <v>8</v>
+      </c>
+      <c r="K31" s="55">
+        <v>42183</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="54">
+        <v>10</v>
+      </c>
+      <c r="B32" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="55">
+        <v>11051</v>
+      </c>
+      <c r="D32" s="55">
+        <v>5547</v>
+      </c>
+      <c r="E32" s="55">
+        <v>4003</v>
+      </c>
+      <c r="F32" s="55">
+        <v>5547</v>
+      </c>
+      <c r="G32" s="55">
+        <v>11051</v>
+      </c>
+      <c r="H32" s="55">
+        <v>3592</v>
+      </c>
+      <c r="I32" s="55">
+        <v>135</v>
+      </c>
+      <c r="J32" s="55">
+        <v>13</v>
+      </c>
+      <c r="K32" s="55">
+        <v>24591</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="54">
+        <v>43</v>
+      </c>
+      <c r="B33" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" s="55">
+        <v>9286</v>
+      </c>
+      <c r="D33" s="55">
+        <v>6268</v>
+      </c>
+      <c r="E33" s="55">
+        <v>2228</v>
+      </c>
+      <c r="F33" s="55">
+        <v>6268</v>
+      </c>
+      <c r="G33" s="55">
+        <v>9286</v>
+      </c>
+      <c r="H33" s="55">
+        <v>2864</v>
+      </c>
+      <c r="I33" s="55">
+        <v>94</v>
+      </c>
+      <c r="J33" s="55">
+        <v>7</v>
+      </c>
+      <c r="K33" s="55">
+        <v>20953</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="54">
+        <v>30</v>
+      </c>
+      <c r="B34" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="55">
+        <v>7948</v>
+      </c>
+      <c r="D34" s="55">
+        <v>5103</v>
+      </c>
+      <c r="E34" s="55">
+        <v>3257</v>
+      </c>
+      <c r="F34" s="55">
+        <v>5103</v>
+      </c>
+      <c r="G34" s="55">
+        <v>7948</v>
+      </c>
+      <c r="H34" s="55">
+        <v>1539</v>
+      </c>
+      <c r="I34" s="55">
+        <v>50</v>
+      </c>
+      <c r="J34" s="55">
+        <v>5</v>
+      </c>
+      <c r="K34" s="55">
+        <v>18179</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="54">
+        <v>31</v>
+      </c>
+      <c r="B35" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="55">
+        <v>7592</v>
+      </c>
+      <c r="D35" s="55">
+        <v>7180</v>
+      </c>
+      <c r="E35" s="55">
+        <v>1951</v>
+      </c>
+      <c r="F35" s="55">
+        <v>7180</v>
+      </c>
+      <c r="G35" s="55">
+        <v>7592</v>
+      </c>
+      <c r="H35" s="55">
+        <v>1019</v>
+      </c>
+      <c r="I35" s="55">
+        <v>62</v>
+      </c>
+      <c r="J35" s="55">
+        <v>1</v>
+      </c>
+      <c r="K35" s="55">
+        <v>18116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="54">
+        <v>19</v>
+      </c>
+      <c r="B36" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" s="55">
+        <v>7456</v>
+      </c>
+      <c r="D36" s="55">
+        <v>4246</v>
+      </c>
+      <c r="E36" s="55">
+        <v>4227</v>
+      </c>
+      <c r="F36" s="55">
+        <v>4246</v>
+      </c>
+      <c r="G36" s="55">
+        <v>7456</v>
+      </c>
+      <c r="H36" s="55">
+        <v>1352</v>
+      </c>
+      <c r="I36" s="55">
+        <v>51</v>
+      </c>
+      <c r="J36" s="55">
+        <v>5</v>
+      </c>
+      <c r="K36" s="55">
+        <v>17615</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="54">
+        <v>40</v>
+      </c>
+      <c r="B37" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="55">
+        <v>7034</v>
+      </c>
+      <c r="D37" s="55">
+        <v>6500</v>
+      </c>
+      <c r="E37" s="55">
+        <v>2373</v>
+      </c>
+      <c r="F37" s="55">
+        <v>6500</v>
+      </c>
+      <c r="G37" s="55">
+        <v>7034</v>
+      </c>
+      <c r="H37" s="55">
+        <v>797</v>
+      </c>
+      <c r="I37" s="55">
+        <v>46</v>
+      </c>
+      <c r="J37" s="55">
+        <v>7</v>
+      </c>
+      <c r="K37" s="55">
+        <v>17048</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="54">
+        <v>55</v>
+      </c>
+      <c r="B38" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="55">
+        <v>6945</v>
+      </c>
+      <c r="D38" s="55">
+        <v>7905</v>
+      </c>
+      <c r="E38" s="55">
+        <v>1793</v>
+      </c>
+      <c r="F38" s="55">
+        <v>7905</v>
+      </c>
+      <c r="G38" s="55">
+        <v>6945</v>
+      </c>
+      <c r="H38" s="55">
+        <v>3466</v>
+      </c>
+      <c r="I38" s="55">
+        <v>148</v>
+      </c>
+      <c r="J38" s="55">
+        <v>11</v>
+      </c>
+      <c r="K38" s="55">
+        <v>20520</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="54">
+        <v>39</v>
+      </c>
+      <c r="B39" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" s="55">
+        <v>6378</v>
+      </c>
+      <c r="D39" s="55">
+        <v>5931</v>
+      </c>
+      <c r="E39" s="55">
+        <v>975</v>
+      </c>
+      <c r="F39" s="55">
+        <v>5931</v>
+      </c>
+      <c r="G39" s="55">
+        <v>6378</v>
+      </c>
+      <c r="H39" s="55">
+        <v>1091</v>
+      </c>
+      <c r="I39" s="55">
+        <v>55</v>
+      </c>
+      <c r="J39" s="55">
+        <v>17</v>
+      </c>
+      <c r="K39" s="55">
+        <v>14772</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="54">
+        <v>44</v>
+      </c>
+      <c r="B40" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="55">
+        <v>6129</v>
+      </c>
+      <c r="D40" s="55">
+        <v>4711</v>
+      </c>
+      <c r="E40" s="55">
+        <v>2668</v>
+      </c>
+      <c r="F40" s="55">
+        <v>4711</v>
+      </c>
+      <c r="G40" s="55">
+        <v>6129</v>
+      </c>
+      <c r="H40" s="55">
+        <v>502</v>
+      </c>
+      <c r="I40" s="55">
+        <v>17</v>
+      </c>
+      <c r="J40" s="55">
+        <v>6</v>
+      </c>
+      <c r="K40" s="55">
+        <v>14362</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="54">
+        <v>37</v>
+      </c>
+      <c r="B41" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" s="55">
+        <v>6045</v>
+      </c>
+      <c r="D41" s="55">
+        <v>10781</v>
+      </c>
+      <c r="E41" s="55">
+        <v>1455</v>
+      </c>
+      <c r="F41" s="55">
+        <v>10781</v>
+      </c>
+      <c r="G41" s="55">
+        <v>6045</v>
+      </c>
+      <c r="H41" s="55">
+        <v>1598</v>
+      </c>
+      <c r="I41" s="55">
+        <v>744</v>
+      </c>
+      <c r="J41" s="55">
+        <v>5</v>
+      </c>
+      <c r="K41" s="55">
+        <v>20915</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="54">
+        <v>50</v>
+      </c>
+      <c r="B42" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="55">
+        <v>5869</v>
+      </c>
+      <c r="D42" s="55">
+        <v>3784</v>
+      </c>
+      <c r="E42" s="55">
+        <v>1203</v>
+      </c>
+      <c r="F42" s="55">
+        <v>3784</v>
+      </c>
+      <c r="G42" s="55">
+        <v>5869</v>
+      </c>
+      <c r="H42" s="55">
+        <v>1105</v>
+      </c>
+      <c r="I42" s="55">
+        <v>45</v>
+      </c>
+      <c r="J42" s="55">
+        <v>4</v>
+      </c>
+      <c r="K42" s="55">
+        <v>12316</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="54">
+        <v>9</v>
+      </c>
+      <c r="B43" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43" s="55">
+        <v>3410</v>
+      </c>
+      <c r="D43" s="55">
+        <v>5013</v>
+      </c>
+      <c r="E43" s="55">
+        <v>401</v>
+      </c>
+      <c r="F43" s="55">
+        <v>5013</v>
+      </c>
+      <c r="G43" s="55">
+        <v>3410</v>
+      </c>
+      <c r="H43" s="55">
+        <v>483</v>
+      </c>
+      <c r="I43" s="55">
+        <v>32</v>
+      </c>
+      <c r="J43" s="55">
+        <v>4</v>
+      </c>
+      <c r="K43" s="55">
+        <v>9716</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="54">
+        <v>2</v>
+      </c>
+      <c r="B44" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="C44" s="55">
+        <v>3250</v>
+      </c>
+      <c r="D44" s="55">
+        <v>9</v>
+      </c>
+      <c r="E44" s="55">
+        <v>0</v>
+      </c>
+      <c r="F44" s="55">
+        <v>9</v>
+      </c>
+      <c r="G44" s="55">
+        <v>3250</v>
+      </c>
+      <c r="H44" s="55">
+        <v>26</v>
+      </c>
+      <c r="I44" s="55">
+        <v>21</v>
+      </c>
+      <c r="J44" s="55">
+        <v>0</v>
+      </c>
+      <c r="K44" s="55">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="54">
+        <v>22</v>
+      </c>
+      <c r="B45" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="C45" s="55">
+        <v>3227</v>
+      </c>
+      <c r="D45" s="55">
+        <v>2111</v>
+      </c>
+      <c r="E45" s="55">
+        <v>777</v>
+      </c>
+      <c r="F45" s="55">
+        <v>2111</v>
+      </c>
+      <c r="G45" s="55">
+        <v>3227</v>
+      </c>
+      <c r="H45" s="55">
+        <v>1329</v>
+      </c>
+      <c r="I45" s="55">
+        <v>55</v>
+      </c>
+      <c r="J45" s="55">
+        <v>8</v>
+      </c>
+      <c r="K45" s="55">
+        <v>7784</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="54">
+        <v>45</v>
+      </c>
+      <c r="B46" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="C46" s="55">
+        <v>2649</v>
+      </c>
+      <c r="D46" s="55">
+        <v>10869</v>
+      </c>
+      <c r="E46" s="55">
+        <v>392</v>
+      </c>
+      <c r="F46" s="55">
+        <v>10869</v>
+      </c>
+      <c r="G46" s="55">
+        <v>2649</v>
+      </c>
+      <c r="H46" s="55">
+        <v>791</v>
+      </c>
+      <c r="I46" s="55">
+        <v>46</v>
+      </c>
+      <c r="J46" s="55">
+        <v>13</v>
+      </c>
+      <c r="K46" s="55">
+        <v>15064</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="54">
+        <v>21</v>
+      </c>
+      <c r="B47" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="C47" s="55">
+        <v>2620</v>
+      </c>
+      <c r="D47" s="55">
+        <v>4005</v>
+      </c>
+      <c r="E47" s="55">
+        <v>651</v>
+      </c>
+      <c r="F47" s="55">
+        <v>4005</v>
+      </c>
+      <c r="G47" s="55">
+        <v>2620</v>
+      </c>
+      <c r="H47" s="55">
+        <v>1047</v>
+      </c>
+      <c r="I47" s="55">
+        <v>60</v>
+      </c>
+      <c r="J47" s="55">
+        <v>3</v>
+      </c>
+      <c r="K47" s="55">
+        <v>8680</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="54">
+        <v>32</v>
+      </c>
+      <c r="B48" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="C48" s="55">
+        <v>2566</v>
+      </c>
+      <c r="D48" s="55">
+        <v>967</v>
+      </c>
+      <c r="E48" s="55">
+        <v>298</v>
+      </c>
+      <c r="F48" s="55">
+        <v>967</v>
+      </c>
+      <c r="G48" s="55">
+        <v>2566</v>
+      </c>
+      <c r="H48" s="55">
+        <v>703</v>
+      </c>
+      <c r="I48" s="55">
+        <v>209</v>
+      </c>
+      <c r="J48" s="55">
+        <v>1</v>
+      </c>
+      <c r="K48" s="55">
+        <v>5130</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" s="54">
+        <v>15</v>
+      </c>
+      <c r="B49" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" s="55">
+        <v>2555</v>
+      </c>
+      <c r="D49" s="55">
+        <v>2195</v>
+      </c>
+      <c r="E49" s="55">
+        <v>1415</v>
+      </c>
+      <c r="F49" s="55">
+        <v>2195</v>
+      </c>
+      <c r="G49" s="55">
+        <v>2555</v>
+      </c>
+      <c r="H49" s="55">
+        <v>496</v>
+      </c>
+      <c r="I49" s="55">
+        <v>9</v>
+      </c>
+      <c r="J49" s="55">
+        <v>2</v>
+      </c>
+      <c r="K49" s="55">
+        <v>6966</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" s="54">
+        <v>5</v>
+      </c>
+      <c r="B50" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="C50" s="55">
+        <v>2238</v>
+      </c>
+      <c r="D50" s="55">
+        <v>1763</v>
+      </c>
+      <c r="E50" s="55">
+        <v>293</v>
+      </c>
+      <c r="F50" s="55">
+        <v>1763</v>
+      </c>
+      <c r="G50" s="55">
+        <v>2238</v>
+      </c>
+      <c r="H50" s="55">
+        <v>259</v>
+      </c>
+      <c r="I50" s="55">
+        <v>9</v>
+      </c>
+      <c r="J50" s="55">
+        <v>2</v>
+      </c>
+      <c r="K50" s="55">
+        <v>4888</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" s="54">
+        <v>34</v>
+      </c>
+      <c r="B51" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="C51" s="55">
+        <v>2003</v>
+      </c>
+      <c r="D51" s="55">
+        <v>6648</v>
+      </c>
+      <c r="E51" s="55">
+        <v>2676</v>
+      </c>
+      <c r="F51" s="55">
+        <v>6648</v>
+      </c>
+      <c r="G51" s="55">
+        <v>2003</v>
+      </c>
+      <c r="H51" s="55">
+        <v>1313</v>
+      </c>
+      <c r="I51" s="55">
+        <v>21</v>
+      </c>
+      <c r="J51" s="55">
+        <v>8</v>
+      </c>
+      <c r="K51" s="55">
+        <v>12985</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="54">
+        <v>54</v>
+      </c>
+      <c r="B52" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" s="55">
+        <v>1701</v>
+      </c>
+      <c r="D52" s="55">
+        <v>923</v>
+      </c>
+      <c r="E52" s="55">
+        <v>1159</v>
+      </c>
+      <c r="F52" s="55">
+        <v>923</v>
+      </c>
+      <c r="G52" s="55">
+        <v>1701</v>
+      </c>
+      <c r="H52" s="55">
+        <v>776</v>
+      </c>
+      <c r="I52" s="55">
+        <v>41</v>
+      </c>
+      <c r="J52" s="55">
+        <v>1</v>
+      </c>
+      <c r="K52" s="55">
+        <v>4932</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" s="54">
+        <v>3</v>
+      </c>
+      <c r="B53" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" s="55">
+        <v>1579</v>
+      </c>
+      <c r="D53" s="55">
+        <v>447</v>
+      </c>
+      <c r="E53" s="55">
+        <v>1013</v>
+      </c>
+      <c r="F53" s="55">
+        <v>447</v>
+      </c>
+      <c r="G53" s="55">
+        <v>1579</v>
+      </c>
+      <c r="H53" s="55">
+        <v>167</v>
+      </c>
+      <c r="I53" s="55">
+        <v>4</v>
+      </c>
+      <c r="J53" s="55">
+        <v>0</v>
+      </c>
+      <c r="K53" s="55">
+        <v>3518</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" s="54">
+        <v>27</v>
+      </c>
+      <c r="B54" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="C54" s="55">
+        <v>1514</v>
+      </c>
+      <c r="D54" s="55">
+        <v>2796</v>
+      </c>
+      <c r="E54" s="55">
+        <v>3000</v>
+      </c>
+      <c r="F54" s="55">
+        <v>2796</v>
+      </c>
+      <c r="G54" s="55">
+        <v>1514</v>
+      </c>
+      <c r="H54" s="55">
+        <v>1160</v>
+      </c>
+      <c r="I54" s="55">
+        <v>45</v>
+      </c>
+      <c r="J54" s="55">
+        <v>1</v>
+      </c>
+      <c r="K54" s="55">
+        <v>8840</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" s="54">
+        <v>51</v>
+      </c>
+      <c r="B55" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="C55" s="55">
+        <v>1439</v>
+      </c>
+      <c r="D55" s="55">
+        <v>449</v>
+      </c>
+      <c r="E55" s="55">
+        <v>291</v>
+      </c>
+      <c r="F55" s="55">
+        <v>449</v>
+      </c>
+      <c r="G55" s="55">
+        <v>1439</v>
+      </c>
+      <c r="H55" s="55">
+        <v>496</v>
+      </c>
+      <c r="I55" s="55">
+        <v>14</v>
+      </c>
+      <c r="J55" s="55">
+        <v>0</v>
+      </c>
+      <c r="K55" s="55">
+        <v>3047</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" s="54">
+        <v>14</v>
+      </c>
+      <c r="B56" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="C56" s="55">
+        <v>1161</v>
+      </c>
+      <c r="D56" s="55">
+        <v>425</v>
+      </c>
+      <c r="E56" s="55">
+        <v>1468</v>
+      </c>
+      <c r="F56" s="55">
+        <v>425</v>
+      </c>
+      <c r="G56" s="55">
+        <v>1161</v>
+      </c>
+      <c r="H56" s="55">
+        <v>204</v>
+      </c>
+      <c r="I56" s="55">
+        <v>3</v>
+      </c>
+      <c r="J56" s="55">
+        <v>2</v>
+      </c>
+      <c r="K56" s="55">
+        <v>3569</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" s="54">
+        <v>48</v>
+      </c>
+      <c r="B57" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57" s="55">
+        <v>997</v>
+      </c>
+      <c r="D57" s="55">
+        <v>584</v>
+      </c>
+      <c r="E57" s="55">
+        <v>323</v>
+      </c>
+      <c r="F57" s="55">
+        <v>584</v>
+      </c>
+      <c r="G57" s="55">
+        <v>997</v>
+      </c>
+      <c r="H57" s="55">
+        <v>233</v>
+      </c>
+      <c r="I57" s="55">
+        <v>3</v>
+      </c>
+      <c r="J57" s="55">
+        <v>1</v>
+      </c>
+      <c r="K57" s="55">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" s="54">
+        <v>29</v>
+      </c>
+      <c r="B58" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="C58" s="55">
+        <v>771</v>
+      </c>
+      <c r="D58" s="55">
+        <v>2205</v>
+      </c>
+      <c r="E58" s="55">
+        <v>0</v>
+      </c>
+      <c r="F58" s="55">
+        <v>2205</v>
+      </c>
+      <c r="G58" s="55">
+        <v>771</v>
+      </c>
+      <c r="H58" s="55">
+        <v>47</v>
+      </c>
+      <c r="I58" s="55">
+        <v>4</v>
+      </c>
+      <c r="J58" s="55">
+        <v>2</v>
+      </c>
+      <c r="K58" s="55">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" s="54">
+        <v>56</v>
+      </c>
+      <c r="B59" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="C59" s="55">
+        <v>484</v>
+      </c>
+      <c r="D59" s="55">
+        <v>465</v>
+      </c>
+      <c r="E59" s="55">
+        <v>54</v>
+      </c>
+      <c r="F59" s="55">
+        <v>465</v>
+      </c>
+      <c r="G59" s="55">
+        <v>484</v>
+      </c>
+      <c r="H59" s="55">
+        <v>353</v>
+      </c>
+      <c r="I59" s="55">
+        <v>34</v>
+      </c>
+      <c r="J59" s="55">
+        <v>0</v>
+      </c>
+      <c r="K59" s="55">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" s="54">
+        <v>42</v>
+      </c>
+      <c r="B60" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="C60" s="55">
+        <v>447</v>
+      </c>
+      <c r="D60" s="55">
+        <v>194</v>
+      </c>
+      <c r="E60" s="55">
+        <v>101</v>
+      </c>
+      <c r="F60" s="55">
+        <v>194</v>
+      </c>
+      <c r="G60" s="55">
+        <v>447</v>
+      </c>
+      <c r="H60" s="55">
+        <v>116</v>
+      </c>
+      <c r="I60" s="55">
+        <v>4</v>
+      </c>
+      <c r="J60" s="55">
+        <v>0</v>
+      </c>
+      <c r="K60" s="55">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" s="54">
+        <v>49</v>
+      </c>
+      <c r="B61" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="C61" s="55">
+        <v>294</v>
+      </c>
+      <c r="D61" s="55">
+        <v>507</v>
+      </c>
+      <c r="E61" s="55">
+        <v>39</v>
+      </c>
+      <c r="F61" s="55">
+        <v>507</v>
+      </c>
+      <c r="G61" s="55">
+        <v>294</v>
+      </c>
+      <c r="H61" s="55">
+        <v>144</v>
+      </c>
+      <c r="I61" s="55">
+        <v>17</v>
+      </c>
+      <c r="J61" s="55">
+        <v>0</v>
+      </c>
+      <c r="K61" s="55">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" s="54">
+        <v>13</v>
+      </c>
+      <c r="B62" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="C62" s="55">
+        <v>161</v>
+      </c>
+      <c r="D62" s="55">
+        <v>8677</v>
+      </c>
+      <c r="E62" s="55">
+        <v>3</v>
+      </c>
+      <c r="F62" s="55">
+        <v>8677</v>
+      </c>
+      <c r="G62" s="55">
+        <v>161</v>
+      </c>
+      <c r="H62" s="55">
+        <v>213</v>
+      </c>
+      <c r="I62" s="55">
+        <v>0</v>
+      </c>
+      <c r="J62" s="55">
+        <v>6</v>
+      </c>
+      <c r="K62" s="55">
+        <v>9271</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" s="54"/>
+      <c r="B63" s="55"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" s="54"/>
+      <c r="B64" s="55"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="54"/>
+      <c r="B65" s="55"/>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B6:K62">
+    <sortCondition descending="1" ref="C6:C62"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>